--- a/Win32/Binaries/Table/dailytask.xlsx
+++ b/Win32/Binaries/Table/dailytask.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="112">
   <si>
     <t>功能ID链接</t>
   </si>
@@ -317,6 +317,94 @@
   </si>
   <si>
     <t>成功挑战4次勇气试炼</t>
+  </si>
+  <si>
+    <t>成功挑战5次精英关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行1排位赛挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功挑战2次巴山试炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关任意普通关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美食烹饪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行3次美食烹饪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏班签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行1次任意形式的戏班签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行群伶招募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行1群伶招募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -672,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,11 +845,14 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>75</v>
       </c>
+      <c r="E3">
+        <v>802</v>
+      </c>
       <c r="F3">
         <v>1</v>
       </c>
@@ -772,33 +863,36 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>802</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -806,25 +900,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>701</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -832,25 +929,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <v>701</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -858,25 +958,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>10014</v>
+        <v>10017</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>2101</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -884,28 +987,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>1303</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -916,10 +1022,13 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="E9">
+        <v>1702</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>1010</v>
@@ -928,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -944,8 +1053,11 @@
       <c r="D10" t="s">
         <v>82</v>
       </c>
+      <c r="E10">
+        <v>1901</v>
+      </c>
       <c r="F10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>1006</v>
@@ -954,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -970,8 +1082,11 @@
       <c r="D11" t="s">
         <v>83</v>
       </c>
+      <c r="E11">
+        <v>302</v>
+      </c>
       <c r="F11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>1013</v>
@@ -980,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -988,161 +1103,184 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10005</v>
+        <v>10008</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <v>1802</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10012</v>
+        <v>10016</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <v>2301</v>
       </c>
       <c r="F13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="E14">
+        <v>1601</v>
       </c>
       <c r="F14">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>301</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <v>1501</v>
       </c>
       <c r="F16">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G16">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="E17">
+        <v>1801</v>
       </c>
       <c r="F17">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J2">
+    <sortState ref="A3:J17">
+      <sortCondition ref="F2"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1280,7 +1418,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+      <selection activeCell="E21" sqref="E21:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
